--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value179.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216579476632735</v>
+        <v>0.978990912437439</v>
       </c>
       <c r="B1">
-        <v>1.455337867333082</v>
+        <v>2.818645000457764</v>
       </c>
       <c r="C1">
-        <v>1.923316751532365</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.581190523146636</v>
+        <v>4.299554824829102</v>
       </c>
       <c r="E1">
-        <v>1.307197640421918</v>
+        <v>2.2932288646698</v>
       </c>
     </row>
   </sheetData>
